--- a/Fase 2/F1-Descrição_use_cases.xlsx
+++ b/Fase 2/F1-Descrição_use_cases.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UM\Informática\3º Ano\1º Semestre\DSS\dss-1617\Fase 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João\Documents\GitHub\dss-1617\Fase 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" tabRatio="856" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="8805" tabRatio="856" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Regista Apartamento" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Pagar Despesa" sheetId="10" r:id="rId11"/>
     <sheet name="Carregar Conta" sheetId="5" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="110">
   <si>
     <r>
       <t xml:space="preserve">  </t>
@@ -148,9 +148,6 @@
     <t>Regressa a 1</t>
   </si>
   <si>
-    <t>Incrementa número de moradores</t>
-  </si>
-  <si>
     <t>Cria dados de autenticação</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>Regista o apartamento</t>
   </si>
   <si>
-    <t>Fornece fração da renda do morador</t>
-  </si>
-  <si>
     <t>Regista fração da renda do morador</t>
   </si>
   <si>
@@ -428,12 +422,15 @@
   </si>
   <si>
     <t>Apresenta o saldo da conta do morador</t>
+  </si>
+  <si>
+    <t>Fornece dados do(s) quarto(s) a alugar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -844,46 +841,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.15625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="5"/>
-    <col min="3" max="3" width="30.20703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="32.734375" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5"/>
+    <col min="3" max="3" width="30.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
@@ -891,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -899,34 +896,34 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -936,18 +933,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="5">
         <v>2</v>
@@ -970,42 +967,42 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.15625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="5"/>
-    <col min="3" max="3" width="34.7890625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.9453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5"/>
+    <col min="3" max="3" width="34.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1021,29 +1018,29 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -1052,18 +1049,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>2</v>
       </c>
@@ -1085,45 +1082,45 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="1"/>
-    <col min="3" max="3" width="48.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1131,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1139,91 +1136,91 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f>B8+1</f>
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10" s="1">
         <f t="shared" ref="B10:B16" si="0">B9+1</f>
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -1232,15 +1229,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1257,45 +1254,45 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.15625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="5"/>
-    <col min="3" max="3" width="35.41796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.734375" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5"/>
+    <col min="3" max="3" width="35.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1311,52 +1308,52 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
   </sheetData>
@@ -1369,20 +1366,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.15625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="5"/>
-    <col min="3" max="3" width="46.734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.3125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="20.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5"/>
+    <col min="3" max="3" width="46.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1406,7 +1403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1414,7 +1411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1424,9 +1421,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1436,154 +1433,148 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>6</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>7</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="5">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="8"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="5">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="33" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
   </sheetData>
@@ -1600,49 +1591,49 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.15625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="5"/>
+    <col min="1" max="1" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5"/>
     <col min="3" max="3" width="48" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.83984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="1"/>
+    <col min="4" max="4" width="43.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1652,7 +1643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1663,7 +1654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -1671,48 +1662,48 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="5">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1722,19 +1713,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="5">
         <v>2</v>
@@ -1743,7 +1734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
     </row>
   </sheetData>
@@ -1760,45 +1751,45 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.15625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="5"/>
-    <col min="3" max="3" width="44.3125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5234375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="15.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5"/>
+    <col min="3" max="3" width="44.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1808,7 +1799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1819,7 +1810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -1827,39 +1818,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="5">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -1869,19 +1860,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="5">
         <v>2</v>
@@ -1890,7 +1881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -1900,7 +1891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -1911,7 +1902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>2</v>
       </c>
@@ -1919,7 +1910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -1929,19 +1920,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>2</v>
       </c>
@@ -1963,45 +1954,44 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.15625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="5"/>
-    <col min="3" max="3" width="43.89453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.83984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5"/>
+    <col min="3" max="4" width="43.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +1999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -2020,7 +2010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -2028,44 +2018,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="5">
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -2075,19 +2065,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="5">
         <v>2</v>
@@ -2096,7 +2086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -2106,7 +2096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2117,7 +2107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>2</v>
       </c>
@@ -2139,46 +2129,46 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="5"/>
-    <col min="3" max="3" width="36.15625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.47265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="1"/>
+    <col min="2" max="2" width="8.85546875" style="5"/>
+    <col min="3" max="3" width="36.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -2188,7 +2178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -2196,43 +2186,43 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -2242,28 +2232,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="5">
         <v>2</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L17" s="10"/>
     </row>
   </sheetData>
@@ -2280,45 +2270,45 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="5"/>
+    <col min="2" max="2" width="8.85546875" style="5"/>
     <col min="3" max="3" width="39" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.47265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="1"/>
+    <col min="4" max="4" width="36.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -2328,7 +2318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -2336,43 +2326,43 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -2382,29 +2372,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="F14" s="10"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="5">
         <v>2</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L17" s="10"/>
     </row>
   </sheetData>
@@ -2421,45 +2411,45 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.15625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="5"/>
-    <col min="3" max="3" width="40.26171875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.3125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5"/>
+    <col min="3" max="3" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2467,7 +2457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -2475,32 +2465,32 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
     </row>
   </sheetData>
@@ -2517,45 +2507,45 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.15625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="5"/>
-    <col min="3" max="3" width="40.26171875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26171875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5"/>
+    <col min="3" max="3" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2564,7 +2554,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -2572,33 +2562,33 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
     </row>
   </sheetData>
